--- a/uploads/rbt/rbt.xlsx
+++ b/uploads/rbt/rbt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XAMPP\htdocs\rbt_system\uploads\rbt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\php7.2\xampp\htdocs\rbt_system_php7\uploads\rbt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Rbt Name</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Occasion</t>
+  </si>
+  <si>
+    <t>Master Content Code</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,9 +414,10 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -429,8 +433,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
